--- a/甘特进度.xlsx
+++ b/甘特进度.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -74,10 +69,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>优橙订单(同上)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>售后处理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -97,11 +88,15 @@
     <t>预览店铺</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">优橙订单(同上)    </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -159,11 +154,11 @@
     <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -183,36 +178,24 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.25906466072680062"/>
+          <c:x val="0.25906466072680068"/>
           <c:y val="6.156590280662292E-2"/>
-          <c:w val="0.71102707879157678"/>
-          <c:h val="0.8335044737409667"/>
+          <c:w val="0.71102707879157689"/>
+          <c:h val="0.83350447374096659"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="0"/>
@@ -240,7 +223,6 @@
               </a:outerShdw>
             </a:effectLst>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:delete val="1"/>
           </c:dLbls>
@@ -292,7 +274,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000036-1E91-4670-833D-7EC4D281A364}"/>
             </c:ext>
@@ -305,12 +287,9 @@
             <c:strRef>
               <c:f>Sheet1!$C$1:$C$2</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>优橙项目进度表</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>耗费时间</c:v>
+                  <c:v>优橙项目进度表 耗费时间</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -353,7 +332,6 @@
               </a:outerShdw>
             </a:effectLst>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -384,14 +362,8 @@
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
                 <c15:showLeaderLines val="1"/>
@@ -480,7 +452,7 @@
                     <c:v>我的订单(商品订单,筛选功能,详情)</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>优橙订单(同上)</c:v>
+                    <c:v>优橙订单(同上)    </c:v>
                   </c:pt>
                   <c:pt idx="8">
                     <c:v>售后处理</c:v>
@@ -549,26 +521,19 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1E91-4670-833D-7EC4D281A364}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
-          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="794847632"/>
-        <c:axId val="794847960"/>
-        <c:extLst>
+        <c:axId val="69913984"/>
+        <c:axId val="70988928"/>
+        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
               <c15:ser>
@@ -752,15 +717,13 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="794847632"/>
+        <c:axId val="69913984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -794,19 +757,17 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="794847960"/>
+        <c:crossAx val="70988928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="794847960"/>
+        <c:axId val="70988928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -824,7 +785,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="m&quot;月&quot;d&quot;日&quot;" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -852,7 +812,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="794847632"/>
+        <c:crossAx val="69913984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -867,7 +827,6 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -897,7 +856,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:gradFill flip="none" rotWithShape="1">
@@ -937,7 +895,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1483,16 +1441,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>4686300</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1428750</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>447674</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>233362</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>366712</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1557,7 +1515,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1592,7 +1550,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1769,18 +1727,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1792,12 +1750,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="31.5">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -1924,7 +1882,7 @@
       <c r="M6" s="1"/>
     </row>
     <row r="7" spans="1:13" ht="31.5">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="2">
@@ -1994,7 +1952,7 @@
     </row>
     <row r="10" spans="1:13" ht="31.5">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2">
         <v>42814</v>
@@ -2017,7 +1975,7 @@
     </row>
     <row r="11" spans="1:13" ht="31.5">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="2">
         <v>42816</v>
@@ -2040,7 +1998,7 @@
     </row>
     <row r="12" spans="1:13" ht="31.5">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="2">
         <v>42818</v>
@@ -2063,7 +2021,7 @@
     </row>
     <row r="13" spans="1:13" ht="31.5">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="2">
         <v>42820</v>
@@ -2086,7 +2044,7 @@
     </row>
     <row r="14" spans="1:13" ht="31.5">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" s="2">
         <v>42822</v>
@@ -2109,7 +2067,7 @@
     </row>
     <row r="15" spans="1:13" ht="31.5">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="2">
         <v>42823</v>
@@ -2346,6 +2304,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>